--- a/客制化轴体.xlsx
+++ b/客制化轴体.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\每日打卡\知识输出\客制化机械键盘\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\Keyboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822632AE-660C-4C79-A5A8-4ABD6F4D54EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BB9FD7-A955-43F0-A38B-997ADD0058C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="轴体评分" sheetId="1" r:id="rId1"/>
     <sheet name="轴体购物车" sheetId="2" r:id="rId2"/>
     <sheet name="二手出掉" sheetId="3" r:id="rId3"/>
-    <sheet name="二手购入" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
   <si>
     <t>轴体</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,22 +112,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>凯华 Box茶轴v2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>放入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装盒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>知夏轴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,18 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其他21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符 47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字母26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,6 +197,110 @@
   </si>
   <si>
     <t>子弹音，可能因为安装在最上面一排有点空腔，太轻了，相比灰木更粘滞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公主轴v2（线性）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相比v2声音集中很多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公主轴v2（段落）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚润汉白玉轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青柠轴v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G银PRO2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G白PRO2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G黄PRO2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海洋段落轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰青轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚润酒红轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z1轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛克轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵动轴v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟雨轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KPRO静音红轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水蜜桃v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶油黄PRO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦茶紫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白菜豆腐轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极地狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明石轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集贤白轴v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相比其他线性轴更静音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +308,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,23 +336,6 @@
       <b/>
       <sz val="10.5"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -314,23 +376,102 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="10.5"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
@@ -368,133 +509,6 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <sz val="10.5"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -509,21 +523,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F3D08BA-9C13-4193-8EA0-1F00F032F64D}" name="表2" displayName="表2" ref="A1:G17" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" totalsRowDxfId="15">
-  <autoFilter ref="A1:G17" xr:uid="{5F3D08BA-9C13-4193-8EA0-1F00F032F64D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F3D08BA-9C13-4193-8EA0-1F00F032F64D}" name="表2" displayName="表2" ref="A1:D38" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
+  <autoFilter ref="A1:D38" xr:uid="{5F3D08BA-9C13-4193-8EA0-1F00F032F64D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
     <sortCondition descending="1" ref="B1:B17"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DC62DD75-6872-4B3F-9BE1-8C73A25FF87D}" name="轴体" dataDxfId="8" totalsRowDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{EEE5B21D-0FB2-4775-A1FE-176143584FFA}" name="评分" dataDxfId="7" totalsRowDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{A50BF0A2-48B9-4B2C-B92F-B9EFC963032B}" name="单价" dataDxfId="6" totalsRowDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{808F545E-3C97-40FD-8905-D23E938279EB}" name="描述" dataDxfId="5" totalsRowDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{CB83F1B1-897B-42D9-8402-CAA5256A36E8}" name="数目" dataDxfId="4" totalsRowDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{513D0FD0-5D3C-4DCF-B469-B9AB7C81E8B9}" name="放入" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{D1DBFA60-7CAC-492A-B6BF-121C28B95E6B}" name="装盒" dataDxfId="2" totalsRowDxfId="9">
-      <calculatedColumnFormula>表2[[#This Row],[数目]]-表2[[#This Row],[放入]]</calculatedColumnFormula>
-    </tableColumn>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{DC62DD75-6872-4B3F-9BE1-8C73A25FF87D}" name="轴体" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{EEE5B21D-0FB2-4775-A1FE-176143584FFA}" name="评分" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{A50BF0A2-48B9-4B2C-B92F-B9EFC963032B}" name="单价" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{808F545E-3C97-40FD-8905-D23E938279EB}" name="描述" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -792,21 +801,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.640625" style="1" customWidth="1"/>
     <col min="2" max="3" width="10.640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="53.92578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="100.640625" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -819,18 +828,9 @@
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="3">
@@ -842,19 +842,9 @@
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <f>表2[[#This Row],[数目]]-表2[[#This Row],[放入]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
@@ -864,21 +854,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="3">
-        <v>6</v>
-      </c>
-      <c r="F3" s="7">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3">
-        <f>表2[[#This Row],[数目]]-表2[[#This Row],[放入]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3">
@@ -888,21 +868,11 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="3">
-        <v>8</v>
-      </c>
-      <c r="F4" s="7">
-        <v>7</v>
-      </c>
-      <c r="G4" s="3">
-        <f>表2[[#This Row],[数目]]-表2[[#This Row],[放入]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3">
@@ -912,22 +882,12 @@
         <v>1.8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5</v>
-      </c>
-      <c r="F5" s="7">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3">
-        <f>表2[[#This Row],[数目]]-表2[[#This Row],[放入]]</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="B6" s="3">
         <v>6</v>
@@ -936,22 +896,12 @@
         <v>1.48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="3">
-        <v>10</v>
-      </c>
-      <c r="F6" s="7">
-        <v>6</v>
-      </c>
-      <c r="G6" s="3">
-        <f>表2[[#This Row],[数目]]-表2[[#This Row],[放入]]</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
@@ -962,19 +912,9 @@
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3">
-        <v>9</v>
-      </c>
-      <c r="F7" s="7">
-        <v>8</v>
-      </c>
-      <c r="G7" s="3">
-        <f>表2[[#This Row],[数目]]-表2[[#This Row],[放入]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="3">
@@ -984,21 +924,11 @@
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5</v>
-      </c>
-      <c r="F8" s="7">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3">
-        <f>表2[[#This Row],[数目]]-表2[[#This Row],[放入]]</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="3">
@@ -1008,21 +938,11 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="3">
-        <v>4</v>
-      </c>
-      <c r="F9" s="7">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3">
-        <f>表2[[#This Row],[数目]]-表2[[#This Row],[放入]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="3">
@@ -1032,21 +952,11 @@
         <v>1.9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="3">
-        <v>6</v>
-      </c>
-      <c r="F10" s="7">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <f>表2[[#This Row],[数目]]-表2[[#This Row],[放入]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="3">
@@ -1056,21 +966,11 @@
         <v>0.89</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="3">
-        <v>10</v>
-      </c>
-      <c r="F11" s="7">
-        <v>9</v>
-      </c>
-      <c r="G11" s="3">
-        <f>表2[[#This Row],[数目]]-表2[[#This Row],[放入]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="3">
@@ -1080,153 +980,231 @@
         <v>0.68</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="3">
-        <v>10</v>
-      </c>
-      <c r="F12" s="7">
-        <v>9</v>
-      </c>
-      <c r="G12" s="3">
-        <f>表2[[#This Row],[数目]]-表2[[#This Row],[放入]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="3">
         <v>3.9</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="3">
-        <v>4</v>
-      </c>
-      <c r="F13" s="7">
-        <v>3</v>
-      </c>
-      <c r="G13" s="3">
-        <f>表2[[#This Row],[数目]]-表2[[#This Row],[放入]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="C14" s="3">
         <v>3.19</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="3">
-        <v>4</v>
-      </c>
-      <c r="F14" s="7">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <f>表2[[#This Row],[数目]]-表2[[#This Row],[放入]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="3">
         <v>2.6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="3">
-        <v>5</v>
-      </c>
-      <c r="F15" s="7">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
-        <f>表2[[#This Row],[数目]]-表2[[#This Row],[放入]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="3">
         <v>1.8</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="3">
-        <v>5</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <f>表2[[#This Row],[数目]]-表2[[#This Row],[放入]]</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="3">
-        <f>SUBTOTAL(109,E2:E16)</f>
-        <v>91</v>
-      </c>
-      <c r="F17" s="7">
-        <f>SUBTOTAL(109,F2:F16)</f>
-        <v>68</v>
-      </c>
-      <c r="G17" s="3">
-        <f>表2[[#This Row],[数目]]-表2[[#This Row],[放入]]</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="D18" s="2"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="D19" s="2"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="D20" s="2"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="D21" s="2"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-      <c r="D22" s="2"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-      <c r="D23" s="2"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-      <c r="D24" s="2"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1239,10 +1217,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E1B989-1604-48EE-83E7-15DD27B5FB76}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1260,13 +1238,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1282,7 +1260,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="4">
         <v>8</v>
@@ -1291,12 +1269,12 @@
         <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" s="4">
         <v>5</v>
@@ -1305,18 +1283,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1346,10 +1313,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1369,7 +1336,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" s="4">
         <v>1.5</v>
@@ -1384,7 +1351,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4">
         <v>1.3</v>
@@ -1429,7 +1396,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4">
         <v>1.8</v>
@@ -1452,19 +1419,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAA1F98-7665-4B7C-8228-09AD0B8EE678}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/客制化轴体.xlsx
+++ b/客制化轴体.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\Keyboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BB9FD7-A955-43F0-A38B-997ADD0058C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A8F2B7-FA26-42BF-9B02-CFE3D49C4F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
   <si>
     <t>轴体</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,10 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>相比v2声音集中很多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>公主轴v2（段落）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,6 +297,66 @@
   </si>
   <si>
     <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相比v2声音集中很多，喜欢和期待触底的感觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟V1好像好像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸到的第一款静音轴，触底的踩雪感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比明石轴、V1轴更响一些，很HIFI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前段落很像冰魄轴，让公主轴按压起来更给力了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>较安静的段落轴，跟box白是两种不一样的，让人舒服的响，这个有点碎冰的那种感觉，声音比box白散一点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段落轴，但是比较特别，透过外壳可以看出双段式的设计，按压全程有不一样的触感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>较为经典的段落轴，知夏轴太炸耳朵了，这个不至于炸耳朵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -362,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -382,17 +438,21 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -422,16 +482,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -530,9 +580,9 @@
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DC62DD75-6872-4B3F-9BE1-8C73A25FF87D}" name="轴体" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{EEE5B21D-0FB2-4775-A1FE-176143584FFA}" name="评分" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{A50BF0A2-48B9-4B2C-B92F-B9EFC963032B}" name="单价" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{808F545E-3C97-40FD-8905-D23E938279EB}" name="描述" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{EEE5B21D-0FB2-4775-A1FE-176143584FFA}" name="评分" dataDxfId="0" totalsRowDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{A50BF0A2-48B9-4B2C-B92F-B9EFC963032B}" name="单价" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{808F545E-3C97-40FD-8905-D23E938279EB}" name="描述" dataDxfId="2" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -803,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -875,8 +925,8 @@
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
-        <v>7</v>
+      <c r="B5" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C5" s="3">
         <v>1.8</v>
@@ -997,7 +1047,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="3">
         <v>3.19</v>
@@ -1026,184 +1076,179 @@
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
+        <v>51</v>
+      </c>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
+        <v>57</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
+        <v>58</v>
+      </c>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
+        <v>59</v>
+      </c>
+      <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>65</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8" t="s">
-        <v>42</v>
+      <c r="D38" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/客制化轴体.xlsx
+++ b/客制化轴体.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\Keyboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A8F2B7-FA26-42BF-9B02-CFE3D49C4F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45D7146-9396-447D-8A04-8642A4B0E774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
   <si>
     <t>轴体</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不单卖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>凯华 Box茶轴v2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,11 +312,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前段落很像冰魄轴，让公主轴按压起来更给力了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段落轴，但是比较特别，透过外壳可以看出双段式的设计，按压全程有不一样的触感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>摸到的第一款静音轴，触底的踩雪感</t>
+    <t>较为经典的段落轴，知夏轴太炸耳朵了，这个不至于炸耳朵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静音轴，相比奶油黄pro更顺滑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸到的第一款静音轴，触底的踩雪感，相比水蜜桃v2更有段落感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静音轴，跟奶油黄的段落感相近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段落轴里安静点的，有点碎冰的那种感觉，声音比box白散一点，碎碎沙沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比明石轴、V1轴更响一些，很HIFI，按压回弹克数足够</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声音不是很集中，比较散（相比烟雨轴）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -328,35 +380,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>比明石轴、V1轴更响一些，很HIFI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提前段落很像冰魄轴，让公主轴按压起来更给力了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>较安静的段落轴，跟box白是两种不一样的，让人舒服的响，这个有点碎冰的那种感觉，声音比box白散一点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>段落轴，但是比较特别，透过外壳可以看出双段式的设计，按压全程有不一样的触感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>较为经典的段落轴，知夏轴太炸耳朵了，这个不至于炸耳朵</t>
+    <t>5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,16 +473,6 @@
   <dxfs count="11">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -482,6 +500,16 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -580,9 +608,9 @@
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DC62DD75-6872-4B3F-9BE1-8C73A25FF87D}" name="轴体" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{EEE5B21D-0FB2-4775-A1FE-176143584FFA}" name="评分" dataDxfId="0" totalsRowDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{A50BF0A2-48B9-4B2C-B92F-B9EFC963032B}" name="单价" dataDxfId="4" totalsRowDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{808F545E-3C97-40FD-8905-D23E938279EB}" name="描述" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{EEE5B21D-0FB2-4775-A1FE-176143584FFA}" name="评分" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{A50BF0A2-48B9-4B2C-B92F-B9EFC963032B}" name="单价" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{808F545E-3C97-40FD-8905-D23E938279EB}" name="描述" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -854,7 +882,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B38"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -886,9 +914,6 @@
       <c r="B2" s="3">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
@@ -904,7 +929,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -918,7 +943,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -926,18 +951,18 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C5" s="3">
         <v>1.8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3">
         <v>6</v>
@@ -946,12 +971,12 @@
         <v>1.48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
@@ -974,7 +999,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -988,7 +1013,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1002,7 +1027,7 @@
         <v>1.9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1016,7 +1041,7 @@
         <v>0.89</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1030,13 +1055,16 @@
         <v>0.68</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="B13" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C13" s="3">
         <v>3.9</v>
       </c>
@@ -1047,7 +1075,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="3">
         <v>3.19</v>
@@ -1058,16 +1086,22 @@
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="B15" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="C15" s="3">
         <v>2.6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="C16" s="3">
         <v>1.8</v>
@@ -1076,179 +1110,194 @@
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1283,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1305,7 +1354,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="4">
         <v>8</v>
@@ -1314,12 +1363,12 @@
         <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="4">
         <v>5</v>
@@ -1328,7 +1377,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1358,10 +1407,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1381,7 +1430,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4">
         <v>1.5</v>
@@ -1396,7 +1445,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4">
         <v>1.3</v>
@@ -1441,7 +1490,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4">
         <v>1.8</v>

--- a/客制化轴体.xlsx
+++ b/客制化轴体.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\Keyboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45D7146-9396-447D-8A04-8642A4B0E774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A6F405-CCF5-4F48-A0B4-B873D6A58E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
   <si>
     <t>轴体</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,54 +288,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>相比其他线性轴更静音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>相比v2声音集中很多，喜欢和期待触底的感觉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟V1好像好像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提前段落很像冰魄轴，让公主轴按压起来更给力了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>段落轴，但是比较特别，透过外壳可以看出双段式的设计，按压全程有不一样的触感</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>较为经典的段落轴，知夏轴太炸耳朵了，这个不至于炸耳朵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -356,10 +320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>比明石轴、V1轴更响一些，很HIFI，按压回弹克数足够</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -368,23 +328,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
+    <t>跟V1好像好像，按压很轻松丝滑，克数会不会太轻了？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声音不是那么集中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比v1响一点，但也算比较安静的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相比其他线性轴更静音，用力按声音也不大，闷，声音集中，黑色的上下盖加紫色轴心很有神秘感</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,6 +348,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -466,11 +425,27 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -500,16 +475,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -608,9 +573,9 @@
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DC62DD75-6872-4B3F-9BE1-8C73A25FF87D}" name="轴体" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{EEE5B21D-0FB2-4775-A1FE-176143584FFA}" name="评分" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{A50BF0A2-48B9-4B2C-B92F-B9EFC963032B}" name="单价" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{808F545E-3C97-40FD-8905-D23E938279EB}" name="描述" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{EEE5B21D-0FB2-4775-A1FE-176143584FFA}" name="评分" dataDxfId="0" totalsRowDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{A50BF0A2-48B9-4B2C-B92F-B9EFC963032B}" name="单价" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{808F545E-3C97-40FD-8905-D23E938279EB}" name="描述" dataDxfId="2" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -881,14 +846,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="10.640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="100.640625" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
@@ -897,7 +863,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -911,7 +877,7 @@
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="8">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -922,7 +888,7 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="8">
         <v>8</v>
       </c>
       <c r="C3" s="3">
@@ -936,7 +902,7 @@
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="8">
         <v>8</v>
       </c>
       <c r="C4" s="3">
@@ -950,8 +916,8 @@
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>72</v>
+      <c r="B5" s="8">
+        <v>8</v>
       </c>
       <c r="C5" s="3">
         <v>1.8</v>
@@ -964,7 +930,7 @@
       <c r="A6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="8">
         <v>6</v>
       </c>
       <c r="C6" s="3">
@@ -978,7 +944,7 @@
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="8">
         <v>6</v>
       </c>
       <c r="C7" s="3">
@@ -992,7 +958,7 @@
       <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="8">
         <v>6</v>
       </c>
       <c r="C8" s="3">
@@ -1006,7 +972,7 @@
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="8">
         <v>5</v>
       </c>
       <c r="C9" s="3">
@@ -1020,7 +986,7 @@
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="8">
         <v>4</v>
       </c>
       <c r="C10" s="3">
@@ -1034,7 +1000,7 @@
       <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="8">
         <v>4</v>
       </c>
       <c r="C11" s="3">
@@ -1048,7 +1014,7 @@
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="8">
         <v>4</v>
       </c>
       <c r="C12" s="3">
@@ -1062,8 +1028,8 @@
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>86</v>
+      <c r="B13" s="8">
+        <v>6</v>
       </c>
       <c r="C13" s="3">
         <v>3.9</v>
@@ -1074,8 +1040,8 @@
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>64</v>
+      <c r="B14" s="8">
+        <v>6</v>
       </c>
       <c r="C14" s="3">
         <v>3.19</v>
@@ -1086,8 +1052,8 @@
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>87</v>
+      <c r="B15" s="8">
+        <v>5</v>
       </c>
       <c r="C15" s="3">
         <v>2.6</v>
@@ -1100,8 +1066,8 @@
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>87</v>
+      <c r="B16" s="8">
+        <v>5</v>
       </c>
       <c r="C16" s="3">
         <v>1.8</v>
@@ -1112,11 +1078,11 @@
       <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+      <c r="B17" s="8">
+        <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1129,18 +1095,23 @@
       <c r="A19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>83</v>
+      <c r="B19" s="8">
+        <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="B20" s="8">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
@@ -1152,33 +1123,33 @@
       <c r="A22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>80</v>
+      <c r="B22" s="8">
+        <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>70</v>
+      <c r="B23" s="8">
+        <v>7</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>72</v>
+      <c r="B24" s="8">
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1203,17 +1174,22 @@
       <c r="A28" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="B28" s="8">
+        <v>7</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>69</v>
+      <c r="B29" s="8">
+        <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1226,22 +1202,22 @@
       <c r="A31" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>85</v>
+      <c r="B31" s="8">
+        <v>7</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>84</v>
+      <c r="B32" s="8">
+        <v>4</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1260,44 +1236,44 @@
       <c r="A35" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>74</v>
+      <c r="B35" s="8">
+        <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>67</v>
+      <c r="B36" s="8">
+        <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>64</v>
+      <c r="B37" s="8">
+        <v>7</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>65</v>
+      <c r="B38" s="8">
+        <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/客制化轴体.xlsx
+++ b/客制化轴体.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\Keyboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A6F405-CCF5-4F48-A0B4-B873D6A58E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF858F8-81EA-47A1-A43B-4AE0D5BD2D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -176,14 +176,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>麻将音，在S99上有点难拔，还是很看填充物的，比冰魄轴更安静</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提前段落，手感很好，声音比香芋更立体，比灰木和集贤白轴按起来更重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>按压比香芋更轻盈，比西子轴压力克数应该大一些，声音比灰木和集贤白轴更纯净</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,6 +333,14 @@
   </si>
   <si>
     <t>相比其他线性轴更静音，用力按声音也不大，闷，声音集中，黑色的上下盖加紫色轴心很有神秘感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前段落，手感很好，声音比香芋更立体，比灰木和集贤白轴按起来更重，跟键帽结合很紧（拔键帽时候可以感觉到）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻将音，在S99上有点难拔，还是很看填充物的，比冰魄轴更安静，说错了在哪里都难拔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,16 +437,6 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <numFmt numFmtId="176" formatCode="0_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -475,6 +465,16 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -573,9 +573,9 @@
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DC62DD75-6872-4B3F-9BE1-8C73A25FF87D}" name="轴体" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{EEE5B21D-0FB2-4775-A1FE-176143584FFA}" name="评分" dataDxfId="0" totalsRowDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{A50BF0A2-48B9-4B2C-B92F-B9EFC963032B}" name="单价" dataDxfId="4" totalsRowDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{808F545E-3C97-40FD-8905-D23E938279EB}" name="描述" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{EEE5B21D-0FB2-4775-A1FE-176143584FFA}" name="评分" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{A50BF0A2-48B9-4B2C-B92F-B9EFC963032B}" name="单价" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{808F545E-3C97-40FD-8905-D23E938279EB}" name="描述" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -895,7 +895,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -928,7 +928,7 @@
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="8">
         <v>6</v>
@@ -965,7 +965,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -979,7 +979,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1007,7 +1007,7 @@
         <v>0.89</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1021,7 +1021,7 @@
         <v>0.68</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1076,204 +1076,204 @@
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" s="8">
         <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B19" s="8">
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" s="8">
         <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22" s="8">
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" s="8">
         <v>7</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" s="8">
         <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" s="8">
         <v>7</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B29" s="8">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B31" s="8">
         <v>7</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B32" s="8">
         <v>4</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B35" s="8">
         <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B36" s="8">
         <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B37" s="8">
         <v>7</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B38" s="8">
         <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/客制化轴体.xlsx
+++ b/客制化轴体.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\Keyboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF858F8-81EA-47A1-A43B-4AE0D5BD2D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F104B2EF-2AE0-4638-AC0D-5D5CE40CAC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t>轴体</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,10 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>静音轴，相比奶油黄pro更顺滑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>摸到的第一款静音轴，触底的踩雪感，相比水蜜桃v2更有段落感</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,6 +337,14 @@
   </si>
   <si>
     <t>麻将音，在S99上有点难拔，还是很看填充物的，比冰魄轴更安静，说错了在哪里都难拔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静音轴，我目前体验的静音轴top2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静音轴，我目前体验的静音轴top2，相比奶油黄pro更顺滑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -846,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -895,7 +899,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -965,7 +969,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1099,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1110,13 +1114,16 @@
         <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="B21" s="8">
+        <v>5</v>
+      </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1127,7 +1134,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1149,13 +1156,16 @@
         <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>47</v>
       </c>
+      <c r="B25" s="8">
+        <v>7</v>
+      </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1178,7 +1188,7 @@
         <v>7</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1189,24 +1199,29 @@
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="B30" s="8">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B31" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1217,7 +1232,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1251,7 +1266,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1262,7 +1277,7 @@
         <v>7</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">

--- a/客制化轴体.xlsx
+++ b/客制化轴体.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\Keyboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F104B2EF-2AE0-4638-AC0D-5D5CE40CAC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAC64CA-D423-4DA4-8C0D-BF4A2BC7A505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>轴体</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>段落轴，很清脆，装了一颗在Esc上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蓝莓冰淇淋轴PRO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,14 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>段落轴，圆珠笔音，比知夏轴声音更收敛一点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杂音有点多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已有数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,22 +272,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提前段落很像冰魄轴，让公主轴按压起来更给力了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>段落轴，但是比较特别，透过外壳可以看出双段式的设计，按压全程有不一样的触感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>较为经典的段落轴，知夏轴太炸耳朵了，这个不至于炸耳朵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>摸到的第一款静音轴，触底的踩雪感，相比水蜜桃v2更有段落感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>静音轴，跟奶油黄的段落感相近</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,7 +320,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>静音轴，我目前体验的静音轴top2，相比奶油黄pro更顺滑</t>
+    <t>闷，声音集中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一点提前段落感，声音较小适合办公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单按轴感觉杂音有点多，闷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟z1比偏脆偏响一点，石子音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前段落很像冰魄轴，让公主轴按压起来更给力了，阻力比冰魄稍微大一点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸到的第一款静音轴，触底的踩雪感，相比水蜜桃v2多了一点段落感，使用起来最静音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段落轴，但是比较特别，透过外壳可以看出双段式的设计，按压全程有不一样的触感，有连带的尾音（不知道算不算杂音）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段落轴，很清脆，装了一颗在Esc上，段落声音top2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段落轴，圆珠笔音，比知夏轴声音更收敛一点，段落声音top1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静音轴，我目前体验的静音轴top1，相比奶油黄pro更顺滑，相比kpro静音红轴更静音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声音偏低沉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -850,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -859,7 +879,7 @@
     <col min="1" max="1" width="18.640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.640625" style="8" customWidth="1"/>
     <col min="3" max="3" width="10.640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="100.640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="104.5" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -879,13 +899,13 @@
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="8">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -899,7 +919,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -913,7 +933,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -927,12 +947,12 @@
         <v>1.8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" s="8">
         <v>6</v>
@@ -941,12 +961,12 @@
         <v>1.48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="8">
         <v>6</v>
@@ -955,7 +975,7 @@
         <v>1.3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -969,7 +989,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -983,26 +1003,26 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3">
         <v>1.9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="8">
         <v>4</v>
@@ -1011,7 +1031,7 @@
         <v>0.89</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1025,32 +1045,36 @@
         <v>0.68</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3">
         <v>3.9</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" s="3">
         <v>3.19</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
@@ -1063,63 +1087,70 @@
         <v>2.6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" s="3">
         <v>1.8</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="B18" s="8">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B19" s="8">
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B20" s="8">
         <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B21" s="8">
         <v>5</v>
@@ -1128,40 +1159,40 @@
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B22" s="8">
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B23" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B24" s="8">
         <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B25" s="8">
         <v>7</v>
@@ -1170,125 +1201,135 @@
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="B26" s="8">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="B27" s="8">
+        <v>7</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B28" s="8">
         <v>7</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B29" s="8">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B30" s="8">
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B31" s="8">
         <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B32" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B35" s="8">
         <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B36" s="8">
         <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B37" s="8">
         <v>7</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B38" s="8">
         <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1323,18 +1364,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -1345,7 +1386,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3" s="4">
         <v>8</v>
@@ -1354,12 +1395,12 @@
         <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="4">
         <v>5</v>
@@ -1368,7 +1409,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1398,10 +1439,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1421,7 +1462,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4">
         <v>1.5</v>
@@ -1436,7 +1477,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4">
         <v>1.3</v>
@@ -1466,7 +1507,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4">
         <v>3.2</v>
@@ -1481,7 +1522,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4">
         <v>1.8</v>

--- a/客制化轴体.xlsx
+++ b/客制化轴体.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\Keyboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAC64CA-D423-4DA4-8C0D-BF4A2BC7A505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44855C6-02C1-4DC0-A761-859DDE30AB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
   <si>
     <t>轴体</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,10 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按压比香芋更轻盈，比西子轴压力克数应该大一些，声音比灰木和集贤白轴更纯净</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>性价比之选，比集贤白略闷一些，太轻了，相比集贤白更轻巧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -276,10 +272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>静音轴，跟奶油黄的段落感相近</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>段落轴里安静点的，有点碎冰的那种感觉，声音比box白散一点，碎碎沙沙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,22 +284,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>跟V1好像好像，按压很轻松丝滑，克数会不会太轻了？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>声音不是那么集中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>比v1响一点，但也算比较安静的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>相比其他线性轴更静音，用力按声音也不大，闷，声音集中，黑色的上下盖加紫色轴心很有神秘感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提前段落，手感很好，声音比香芋更立体，比灰木和集贤白轴按起来更重，跟键帽结合很紧（拔键帽时候可以感觉到）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -324,10 +304,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有一点提前段落感，声音较小适合办公</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>闷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -340,18 +316,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提前段落很像冰魄轴，让公主轴按压起来更给力了，阻力比冰魄稍微大一点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>摸到的第一款静音轴，触底的踩雪感，相比水蜜桃v2多了一点段落感，使用起来最静音</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>段落轴，但是比较特别，透过外壳可以看出双段式的设计，按压全程有不一样的触感，有连带的尾音（不知道算不算杂音）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>段落轴，很清脆，装了一颗在Esc上，段落声音top2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -360,11 +328,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>静音轴，我目前体验的静音轴top1，相比奶油黄pro更顺滑，相比kpro静音红轴更静音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>声音偏低沉</t>
+    <t>0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静音轴，目前体验的静音轴top1，相比奶油黄pro更顺滑，相比kpro静音红轴更静音（已有的里面最静音的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静音轴，跟奶油黄的段落感相近，声音略散，不算特别静音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段落轴，透过外壳可以看出双段式的设计，按压全程有不一样的触感，较响，有连带的尾音（杂音？）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声音不是那么集中，但比较闷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按压比香芋更轻盈，比西子轴压力克数应该大一些，声音比灰木和集贤白轴更纯净，跟G银pro2.0像但更为轻盈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声音偏低沉，有点空腔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟V1好像好像，按压很轻松丝滑，克数会不会太轻了？有点空腔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相比其他线性轴更静音，用力按声音也不大，闷，声音集中，黑色的上下盖加紫色轴心很有神秘感，有点空腔？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一点提前段落感，声音较小适合办公，段落感很舒服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闷，声音集中，很集中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前段落很像冰魄轴，让公主轴按压起来更给力了，阻力比冰魄稍微大一点，提前段落感更明显，声音更集中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -871,7 +879,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -919,7 +927,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -947,12 +955,12 @@
         <v>1.8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="8">
         <v>6</v>
@@ -975,7 +983,7 @@
         <v>1.3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -989,7 +997,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1003,7 +1011,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1017,7 +1025,7 @@
         <v>1.9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1031,7 +1039,7 @@
         <v>0.89</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1045,7 +1053,7 @@
         <v>0.68</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1059,7 +1067,7 @@
         <v>3.9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1073,7 +1081,7 @@
         <v>3.19</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1101,56 +1109,56 @@
         <v>1.8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="8">
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="8">
         <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="8">
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="8">
         <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="8">
         <v>5</v>
@@ -1159,40 +1167,40 @@
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="8">
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="8">
         <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="8">
         <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="8">
         <v>7</v>
@@ -1201,135 +1209,138 @@
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="8">
         <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="8">
         <v>7</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="8">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="8">
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="8">
         <v>8</v>
       </c>
+      <c r="C31" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="D31" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" s="8">
         <v>6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" s="8">
         <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="8">
         <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" s="8">
         <v>7</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="8">
         <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
